--- a/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_within_dp_np.xlsx
+++ b/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_within_dp_np.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.726619688342744</v>
+        <v>0.726619684085851</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0449491169683447</v>
+        <v>0.0449491158999858</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.16244838961794</v>
+        <v>-5.16244857678054</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0000463107118020511</v>
+        <v>0.0000463106654841478</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.82637298470075</v>
+        <v>0.826372978882631</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0234703974874912</v>
+        <v>0.0234703972247593</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.7147055621509</v>
+        <v>-6.71470583793312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00000000358048058312808</v>
+        <v>0.00000000358047381165625</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.651529369334491</v>
+        <v>0.651529363448188</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0366791646055211</v>
+        <v>0.0366791629639856</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-7.61022115717991</v>
+        <v>-7.61022158949256</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00000000000519891870661564</v>
+        <v>0.0000000000051989013163097</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.768618757610005</v>
+        <v>0.768618751833605</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0151693959256877</v>
+        <v>0.0151693954175115</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-13.3340750073686</v>
+        <v>-13.3340757346448</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000000000000000000000000000000000000027865880104731</v>
+        <v>0.0000000000000000000000000000000000000278656083719094</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.00067511702733</v>
+        <v>1.00067511931239</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0210583266285398</v>
+        <v>0.0210583266341395</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0320702057422838</v>
+        <v>0.0320703143180832</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.984799326475623</v>
+        <v>0.984799329561615</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00736868920538748</v>
+        <v>0.0073686893064859</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.04711489342463</v>
+        <v>-2.04711445295514</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.859855708134898</v>
+        <v>0.859855709899035</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0165951862367442</v>
+        <v>0.0165951860825446</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.82336519537878</v>
+        <v>-7.82336517781891</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000000000000977162893723621</v>
+        <v>0.000000000000977163030090453</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.002181519276</v>
+        <v>1.00218152141177</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00754756169856459</v>
+        <v>0.0075475616587873</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.289351335962455</v>
+        <v>0.289351621079145</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.03545824250144</v>
+        <v>1.03545824259088</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0303271693855823</v>
+        <v>0.0303271692804538</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.1896786118951</v>
+        <v>1.18967861907086</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.03507648785208</v>
+        <v>1.03507648844349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0102009859978735</v>
+        <v>0.0102009860910415</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.49815190702147</v>
+        <v>3.49815193504667</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0890138995931086</v>
+        <v>0.0890138902391143</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.01497174116935</v>
+        <v>1.01497174081413</v>
       </c>
       <c r="H12" t="n">
-        <v>0.031512297949472</v>
+        <v>0.0315122975459504</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.478646861403027</v>
+        <v>0.478646856092129</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0004846437355</v>
+        <v>1.00048464373689</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0120403284397567</v>
+        <v>0.01204032833883</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0402614562163964</v>
+        <v>0.040261456669091</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.92615055666637</v>
+        <v>0.926150558179912</v>
       </c>
       <c r="H14" t="n">
-        <v>0.014845704739147</v>
+        <v>0.0148457047152569</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-4.78608825597902</v>
+        <v>-4.78608816955106</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000323120264673409</v>
+        <v>0.000323120403743649</v>
       </c>
     </row>
     <row r="15">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.960053364057699</v>
+        <v>0.960053369300786</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00545347168343624</v>
+        <v>0.00545347178331782</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-7.17669952238466</v>
+        <v>-7.17669846871363</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000000000135687366031764</v>
+        <v>0.000000000135688411301114</v>
       </c>
     </row>
     <row r="16">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.977321567728195</v>
+        <v>0.977321570953832</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0154522597067788</v>
+        <v>0.0154522596102532</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.45087584225392</v>
+        <v>-1.45087564735713</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.938786244779374</v>
+        <v>0.938786244720412</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00536088610399944</v>
+        <v>0.00536088605264965</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-11.0617439011915</v>
+        <v>-11.0617440174514</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0000000000000000000000000365410632863837</v>
+        <v>0.0000000000000000000000000365410159152258</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.37716488154849</v>
+        <v>1.37716489276137</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0877918311524591</v>
+        <v>0.0877918303875367</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.02016957640252</v>
+        <v>5.0201697887384</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0000980891793888655</v>
+        <v>0.0000980890709587888</v>
       </c>
     </row>
     <row r="19">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.19171287627734</v>
+        <v>1.19171288840204</v>
       </c>
       <c r="H19" t="n">
-        <v>0.034487045979361</v>
+        <v>0.0344870462078827</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>6.06072507722092</v>
+        <v>6.06072545029597</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000000257467631736943</v>
+        <v>0.000000257467034491865</v>
       </c>
     </row>
     <row r="20">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.31974972826352</v>
+        <v>1.31974974289461</v>
       </c>
       <c r="H20" t="n">
-        <v>0.076517077677119</v>
+        <v>0.0765170759070737</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.7852606508149</v>
+        <v>4.78526100577484</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000324454595007213</v>
+        <v>0.000324454021579227</v>
       </c>
     </row>
     <row r="21">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.30387335639875</v>
+        <v>1.30387336897646</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02689653027606</v>
+        <v>0.026896529883833</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>12.8629563582347</v>
+        <v>12.8629571375276</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0000000000000000000000000000000000138206817144219</v>
+        <v>0.0000000000000000000000000000000000138205423489879</v>
       </c>
     </row>
     <row r="22">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.42503466271756</v>
+        <v>1.42503467118919</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0954634963230204</v>
+        <v>0.0954634953872993</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>5.28727517522152</v>
+        <v>5.28727534722096</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0000235888432700023</v>
+        <v>0.0000235888210978005</v>
       </c>
     </row>
     <row r="23">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.25255363741943</v>
+        <v>1.25255364695377</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0372829490239897</v>
+        <v>0.0372829491929659</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>7.56526826122114</v>
+        <v>7.56526854024868</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00000000000735423454547934</v>
+        <v>0.00000000000735421875880681</v>
       </c>
     </row>
     <row r="24">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.55782960667775</v>
+        <v>1.55782962020689</v>
       </c>
       <c r="H24" t="n">
-        <v>0.098121719140114</v>
+        <v>0.0981217169513705</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>7.03795103949602</v>
+        <v>7.03795139549053</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000000000370665694078456</v>
+        <v>0.000000000370664747328326</v>
       </c>
     </row>
     <row r="25">
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.30166566172087</v>
+        <v>1.30166567150508</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0296155283505062</v>
+        <v>0.0296155279364301</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>11.5877480966029</v>
+        <v>11.5877486760954</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0000000000000000000000000000903391262026625</v>
+        <v>0.0000000000000000000000000000903385151234841</v>
       </c>
     </row>
     <row r="26">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.27460151648067</v>
+        <v>1.27460152603089</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0794268938919006</v>
+        <v>0.0794268930871801</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.8936578189534</v>
+        <v>3.89365800781562</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0187613429979507</v>
+        <v>0.0187613283841767</v>
       </c>
     </row>
     <row r="27">
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.16176760595018</v>
+        <v>1.16176762047436</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0331762421547423</v>
+        <v>0.0331762424427963</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>5.25070034191726</v>
+        <v>5.25070079975959</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0000287891807418789</v>
+        <v>0.0000287891091784175</v>
       </c>
     </row>
     <row r="28">
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.50004222944928</v>
+        <v>1.50004224795242</v>
       </c>
       <c r="H28" t="n">
-        <v>0.085439145797154</v>
+        <v>0.0854391438670914</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>7.11918417604831</v>
+        <v>7.11918464125092</v>
       </c>
       <c r="L28" t="n">
-        <v>0.000000000206278735388619</v>
+        <v>0.000000000206278039229484</v>
       </c>
     </row>
     <row r="29">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.22139387763382</v>
+        <v>1.22139388673625</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0244861636548906</v>
+        <v>0.0244861632155054</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>9.97583363712887</v>
+        <v>9.97583426221989</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00000000000000000000369476885488531</v>
+        <v>0.00000000000000000000369474558802213</v>
       </c>
     </row>
     <row r="30">
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0347596586367</v>
+        <v>1.03475965636318</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0341953720921352</v>
+        <v>0.0341953719229633</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1.03396725777791</v>
+        <v>1.0339671941352</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.05105320446998</v>
+        <v>1.05105320177691</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0115167200248524</v>
+        <v>0.0115167201159291</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.54424443650445</v>
+        <v>4.54424415508431</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00104752037411468</v>
+        <v>0.00104752177345834</v>
       </c>
     </row>
     <row r="32">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.18039774763014</v>
+        <v>1.18039774479523</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0401316537631332</v>
+        <v>0.0401316531828869</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1619,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>4.8782112542018</v>
+        <v>4.87821124237792</v>
       </c>
       <c r="L32" t="n">
-        <v>0.000203399245098552</v>
+        <v>0.000203399257288796</v>
       </c>
     </row>
     <row r="33">
@@ -1645,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.998306818168308</v>
+        <v>0.998306816042177</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0130642796512899</v>
+        <v>0.0130642795163633</v>
       </c>
       <c r="I33" t="e">
         <v>#NUM!</v>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.129494134753994</v>
+        <v>-0.129494298559456</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.925525718494581</v>
+        <v>0.925525717893644</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0208053687439937</v>
+        <v>0.0208053686970006</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1695,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.44283942785358</v>
+        <v>-3.44283946227826</v>
       </c>
       <c r="L34" t="n">
-        <v>0.109371787833461</v>
+        <v>0.109371773911958</v>
       </c>
     </row>
     <row r="35">
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.974872076216295</v>
+        <v>0.974872078485427</v>
       </c>
       <c r="H35" t="n">
-        <v>0.008201867620053</v>
+        <v>0.0082018677328247</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>-3.02486464979291</v>
+        <v>-3.02486433858286</v>
       </c>
       <c r="L35" t="n">
-        <v>0.472614392331026</v>
+        <v>0.47261487861765</v>
       </c>
     </row>
     <row r="36">
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.13661112961393</v>
+        <v>1.13661113103336</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0242350033721462</v>
+        <v>0.0242350031711842</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1771,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>6.00554292313841</v>
+        <v>6.00554303900671</v>
       </c>
       <c r="L36" t="n">
-        <v>0.000000362316141682207</v>
+        <v>0.00000036231588291619</v>
       </c>
     </row>
     <row r="37">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.936742722473649</v>
+        <v>0.936742720418501</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00815126234591298</v>
+        <v>0.00815126227193364</v>
       </c>
       <c r="I37" t="e">
         <v>#NUM!</v>
@@ -1809,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.50962967339929</v>
+        <v>-7.50962997720604</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0000000000112660231187124</v>
+        <v>0.0000000000112659969746976</v>
       </c>
     </row>
     <row r="38">
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.894435447661312</v>
+        <v>0.894435449045768</v>
       </c>
       <c r="H38" t="n">
-        <v>0.027169358342794</v>
+        <v>0.0271693582971673</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1847,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.67272179003044</v>
+        <v>-3.6727217509265</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0455963348132645</v>
+        <v>0.0455963417930172</v>
       </c>
     </row>
     <row r="39">
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.927519246476112</v>
+        <v>0.927519251011566</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00993411952909564</v>
+        <v>0.00993411966776113</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1885,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.02509729540354</v>
+        <v>-7.02509677514237</v>
       </c>
       <c r="L39" t="n">
-        <v>0.000000000406442546118972</v>
+        <v>0.000000000406444060610942</v>
       </c>
     </row>
     <row r="40">
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.962905200298701</v>
+        <v>0.962905203813759</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0312060487235788</v>
+        <v>0.031206048477114</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.16638025306807</v>
+        <v>-1.16638015389769</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.938331488301745</v>
+        <v>0.938331488241511</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0120814994486432</v>
+        <v>0.0120814993512309</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1961,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.94364709618715</v>
+        <v>-4.94364714071572</v>
       </c>
       <c r="L41" t="n">
-        <v>0.00014568145051865</v>
+        <v>0.000145681417227362</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_within_dp_np.xlsx
+++ b/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_within_dp_np.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.726619684085851</v>
+        <v>0.726619688296632</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0449491158999858</v>
+        <v>0.0449491169623555</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.16244857678054</v>
+        <v>-5.16244839100407</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0000463106654841478</v>
+        <v>0.0000463107114590196</v>
       </c>
     </row>
     <row r="3">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.826372978882631</v>
+        <v>0.826372984400577</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0234703972247593</v>
+        <v>0.023470397463206</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.71470583793312</v>
+        <v>-6.7147055794491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00000000358047381165625</v>
+        <v>0.0000000035804801583929</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.651529363448188</v>
+        <v>0.651529369255152</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0366791629639856</v>
+        <v>0.0366791645929735</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>-7.61022158949256</v>
+        <v>-7.61022116101963</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0000000000051989013163097</v>
+        <v>0.00000000000519891855215803</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.768618751833605</v>
+        <v>0.768618757529767</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0151693954175115</v>
+        <v>0.0151693959201771</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-13.3340757346448</v>
+        <v>-13.33407501611</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0000000000000000000000000000000000000278656083719094</v>
+        <v>0.0000000000000000000000000000000000000278658768386894</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.00067511931239</v>
+        <v>1.00067511708922</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0210583266341395</v>
+        <v>0.0210583266317496</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0320703143180832</v>
+        <v>0.0320702086783882</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.984799329561615</v>
+        <v>0.984799326589368</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0073686893064859</v>
+        <v>0.00736868920689054</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.04711445295514</v>
+        <v>-2.04711487780721</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.859855709899035</v>
+        <v>0.859855708003147</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0165951860825446</v>
+        <v>0.0165951862301132</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.82336517781891</v>
+        <v>-7.82336520524513</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000000000000977163030090453</v>
+        <v>0.000000000000977162817103259</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.00218152141177</v>
+        <v>1.00218151945079</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0075475616587873</v>
+        <v>0.00754756170060588</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.289351621079145</v>
+        <v>0.289351359093733</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.03545824259088</v>
+        <v>1.03545824260092</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0303271692804538</v>
+        <v>0.0303271693934805</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.18967861907086</v>
+        <v>1.18967861497994</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.03507648844349</v>
+        <v>1.0350764877123</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0102009860910415</v>
+        <v>0.0102009859943872</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.49815193504667</v>
+        <v>3.49815189404247</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0890138902391143</v>
+        <v>0.0890139039251215</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.01497174081413</v>
+        <v>1.01497174139556</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0315122975459504</v>
+        <v>0.0315122979674451</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.478646856092129</v>
+        <v>0.478646868415232</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.00048464373689</v>
+        <v>1.0004846439398</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01204032833883</v>
+        <v>0.0120403284443723</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.040261456669091</v>
+        <v>0.0402614731769814</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.926150558179912</v>
+        <v>0.926150556540147</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0148457047152569</v>
+        <v>0.0148457047358442</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-4.78608816955106</v>
+        <v>-4.78608826489391</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000323120403743649</v>
+        <v>0.000323120250328577</v>
       </c>
     </row>
     <row r="15">
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.960053369300786</v>
+        <v>0.960053364045886</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00545347178331782</v>
+        <v>0.00545347168335962</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-7.17669846871363</v>
+        <v>-7.17669952456339</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000000000135688411301114</v>
+        <v>0.000000000135687363870412</v>
       </c>
     </row>
     <row r="16">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.977321570953832</v>
+        <v>0.977321567741779</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0154522596102532</v>
+        <v>0.0154522597078022</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.45087564735713</v>
+        <v>-1.4508758412989</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.938786244720412</v>
+        <v>0.93878624481697</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00536088605264965</v>
+        <v>0.0053608861041482</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-11.0617440174514</v>
+        <v>-11.0617438943145</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0000000000000000000000000365410159152258</v>
+        <v>0.0000000000000000000000000365410660884645</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.37716489276137</v>
+        <v>1.37716488172106</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0877918303875367</v>
+        <v>0.0877918311583514</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.0201697887384</v>
+        <v>5.02016957866037</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0000980890709587888</v>
+        <v>0.0000980891782358898</v>
       </c>
     </row>
     <row r="19">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.19171288840204</v>
+        <v>1.19171287684787</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0344870462078827</v>
+        <v>0.0344870459738029</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>6.06072545029597</v>
+        <v>6.06072509764236</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000000257467034491865</v>
+        <v>0.000000257467599044813</v>
       </c>
     </row>
     <row r="20">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.31974974289461</v>
+        <v>1.31974972822201</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0765170759070737</v>
+        <v>0.0765170776566646</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,10 +1163,10 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.78526100577484</v>
+        <v>4.78526065140115</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000324454021579227</v>
+        <v>0.000324454594060129</v>
       </c>
     </row>
     <row r="21">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.30387336897646</v>
+        <v>1.30387335676228</v>
       </c>
       <c r="H21" t="n">
-        <v>0.026896529883833</v>
+        <v>0.0268965302776649</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1201,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>12.8629571375276</v>
+        <v>12.8629563745693</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0000000000000000000000000000000000138205423489879</v>
+        <v>0.0000000000000000000000000000000000138206787932115</v>
       </c>
     </row>
     <row r="22">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.42503467118919</v>
+        <v>1.42503466294491</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0954634953872993</v>
+        <v>0.0954634963353516</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>5.28727534722096</v>
+        <v>5.2872751777636</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0000235888210978005</v>
+        <v>0.0000235888429423063</v>
       </c>
     </row>
     <row r="23">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.25255364695377</v>
+        <v>1.25255363770527</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0372829491929659</v>
+        <v>0.0372829490088605</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>7.56526854024868</v>
+        <v>7.56526827368417</v>
       </c>
       <c r="L23" t="n">
-        <v>0.00000000000735421875880681</v>
+        <v>0.00000000000735423384035169</v>
       </c>
     </row>
     <row r="24">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.55782962020689</v>
+        <v>1.55782960721465</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0981217169513705</v>
+        <v>0.098121719164838</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>7.03795139549053</v>
+        <v>7.0379510456201</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000000000370664747328326</v>
+        <v>0.000000000370665677791738</v>
       </c>
     </row>
     <row r="25">
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.30166567150508</v>
+        <v>1.30166566212255</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0296155279364301</v>
+        <v>0.0296155283554469</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>11.5877486760954</v>
+        <v>11.5877481118088</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0000000000000000000000000000903385151234841</v>
+        <v>0.0000000000000000000000000000903391101678728</v>
       </c>
     </row>
     <row r="26">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.27460152603089</v>
+        <v>1.27460151638784</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0794268930871801</v>
+        <v>0.0794268938799838</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.89365800781562</v>
+        <v>3.89365781808533</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0187613283841767</v>
+        <v>0.0187613430651206</v>
       </c>
     </row>
     <row r="27">
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.16176762047436</v>
+        <v>1.16176760635789</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0331762424427963</v>
+        <v>0.0331762421443357</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,10 +1429,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>5.25070079975959</v>
+        <v>5.25070035769608</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0000287891091784175</v>
+        <v>0.000028789178275554</v>
       </c>
     </row>
     <row r="28">
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.50004224795242</v>
+        <v>1.5000422296528</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0854391438670914</v>
+        <v>0.0854391457905684</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>7.11918464125092</v>
+        <v>7.11918417994495</v>
       </c>
       <c r="L28" t="n">
-        <v>0.000000000206278039229484</v>
+        <v>0.000000000206278729557426</v>
       </c>
     </row>
     <row r="29">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.22139388673625</v>
+        <v>1.22139387781024</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0244861632155054</v>
+        <v>0.0244861636523226</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>9.97583426221989</v>
+        <v>9.97583364682072</v>
       </c>
       <c r="L29" t="n">
-        <v>0.00000000000000000000369474558802213</v>
+        <v>0.00000000000000000000369476849413832</v>
       </c>
     </row>
     <row r="30">
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.03475965636318</v>
+        <v>1.03475965867212</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0341953719229633</v>
+        <v>0.0341953720986904</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>1.0339671941352</v>
+        <v>1.03396725865085</v>
       </c>
       <c r="L30" t="n">
         <v>1</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.05105320177691</v>
+        <v>1.05105320420665</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0115167201159291</v>
+        <v>0.0115167200206156</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.54424415508431</v>
+        <v>4.5442444141726</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00104752177345834</v>
+        <v>0.0010475204851583</v>
       </c>
     </row>
     <row r="32">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.18039774479523</v>
+        <v>1.18039774807408</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0401316531828869</v>
+        <v>0.0401316537865375</v>
       </c>
       <c r="I32" t="e">
         <v>#NUM!</v>
@@ -1619,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>4.87821124237792</v>
+        <v>4.87821126425382</v>
       </c>
       <c r="L32" t="n">
-        <v>0.000203399257288796</v>
+        <v>0.000203399234735054</v>
       </c>
     </row>
     <row r="33">
@@ -1645,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.998306816042177</v>
+        <v>0.998306818198043</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0130642795163633</v>
+        <v>0.0130642796542562</v>
       </c>
       <c r="I33" t="e">
         <v>#NUM!</v>
@@ -1657,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.129494298559456</v>
+        <v>-0.129494132452437</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.925525717893644</v>
+        <v>0.9255257183112</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0208053686970006</v>
+        <v>0.0208053687401913</v>
       </c>
       <c r="I34" t="e">
         <v>#NUM!</v>
@@ -1695,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>-3.44283946227826</v>
+        <v>-3.44283943661478</v>
       </c>
       <c r="L34" t="n">
-        <v>0.109371773911958</v>
+        <v>0.109371784290392</v>
       </c>
     </row>
     <row r="35">
@@ -1721,10 +1721,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.974872078485427</v>
+        <v>0.974872076091701</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0082018677328247</v>
+        <v>0.00820186761956373</v>
       </c>
       <c r="I35" t="e">
         <v>#NUM!</v>
@@ -1733,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>-3.02486433858286</v>
+        <v>-3.02486466477774</v>
       </c>
       <c r="L35" t="n">
-        <v>0.47261487861765</v>
+        <v>0.472614368916241</v>
       </c>
     </row>
     <row r="36">
@@ -1759,10 +1759,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.13661113103336</v>
+        <v>1.13661112980389</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0242350031711842</v>
+        <v>0.0242350033717519</v>
       </c>
       <c r="I36" t="e">
         <v>#NUM!</v>
@@ -1771,10 +1771,10 @@
         <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>6.00554303900671</v>
+        <v>6.00554293207782</v>
       </c>
       <c r="L36" t="n">
-        <v>0.00000036231588291619</v>
+        <v>0.000000362316121718028</v>
       </c>
     </row>
     <row r="37">
@@ -1797,10 +1797,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.936742720418501</v>
+        <v>0.936742722347782</v>
       </c>
       <c r="H37" t="n">
-        <v>0.00815126227193364</v>
+        <v>0.00815126234550666</v>
       </c>
       <c r="I37" t="e">
         <v>#NUM!</v>
@@ -1809,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>-7.50962997720604</v>
+        <v>-7.50962968820599</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0000000000112659969746976</v>
+        <v>0.0000000000112660218445245</v>
       </c>
     </row>
     <row r="38">
@@ -1835,10 +1835,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.894435449045768</v>
+        <v>0.894435447453475</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0271693582971673</v>
+        <v>0.0271693583396785</v>
       </c>
       <c r="I38" t="e">
         <v>#NUM!</v>
@@ -1847,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.6727217509265</v>
+        <v>-3.67272179724783</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0455963417930172</v>
+        <v>0.0455963335250158</v>
       </c>
     </row>
     <row r="39">
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.927519251011566</v>
+        <v>0.92751924658995</v>
       </c>
       <c r="H39" t="n">
-        <v>0.00993411966776113</v>
+        <v>0.00993411952856922</v>
       </c>
       <c r="I39" t="e">
         <v>#NUM!</v>
@@ -1885,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.02509677514237</v>
+        <v>-7.02509728517873</v>
       </c>
       <c r="L39" t="n">
-        <v>0.000000000406444060610942</v>
+        <v>0.000000000406442575883582</v>
       </c>
     </row>
     <row r="40">
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.962905203813759</v>
+        <v>0.962905200097478</v>
       </c>
       <c r="H40" t="n">
-        <v>0.031206048477114</v>
+        <v>0.0312060487272563</v>
       </c>
       <c r="I40" t="e">
         <v>#NUM!</v>
@@ -1923,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.16638015389769</v>
+        <v>-1.1663802591351</v>
       </c>
       <c r="L40" t="n">
         <v>1</v>
@@ -1949,10 +1949,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.938331488241511</v>
+        <v>0.938331488147717</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0120814993512309</v>
+        <v>0.0120814994486129</v>
       </c>
       <c r="I41" t="e">
         <v>#NUM!</v>
@@ -1961,10 +1961,10 @@
         <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.94364714071572</v>
+        <v>-4.94364710813713</v>
       </c>
       <c r="L41" t="n">
-        <v>0.000145681417227362</v>
+        <v>0.000145681441584382</v>
       </c>
     </row>
   </sheetData>
